--- a/data/timetable/masters.xlsx
+++ b/data/timetable/masters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>№16, чётная</t>
+          <t>№17, нечётная</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -570,7 +570,13 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Занятия по дисциплине "Основы правоведения и противодействия коррупции" согласно приложению №4.
+Сводный список обучающихся согласно приложению №4.
+Ссылки на команды в Мicrosoft Тeams по приложению № 4.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -604,11 +610,7 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -625,7 +627,12 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Дисциплины по выбору:  
+Проектирование человеко-машинных интерфейсов Чупин М.М. (Григорян К.А.) гр 1(веб-аналитика) в 1412</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -641,11 +648,7 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -662,7 +665,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Дисциплины по выбору:  
+Проектирование человеко-машинных интерфейсов  Чупин М.М. (Григорян К.А.) гр 1 (веб-аналитика) в 1412</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -678,11 +686,7 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -703,7 +707,13 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дисциплины по выбору:  
+Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.) гр 2(веб-аналитика) в 1412, 
+Зайдуллин С.С.в 1508 </t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -719,11 +729,7 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -740,7 +746,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Дисциплины по выбору:  
+Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.) гр 2(веб-аналитика) в 1412, Зайдуллин С.С. в 1508</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -756,11 +767,7 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -802,11 +809,7 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Понедельник</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -885,11 +888,7 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -926,11 +925,7 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -975,11 +970,7 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -1034,11 +1025,7 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -1047,12 +1034,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. н.н. в 1305(24.05 и 31.05 перенос на 28.05 в 8.30 в ауд. 1311)</t>
+          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. н.н. в 1305</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. ч.н. в 1305(24.05 и 31.05 перенос на 28.05 в 8.30 в ауд. 1311)</t>
+          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. ч.н. в 1305</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1074,8 +1061,18 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Информационная безопасность  Шарипов Р.Р.в 1408</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дисциплины по выбору: 
+Мобильные информационные системы Хайруллин А.Ф.(гр. №2 в 1404, 
+Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.)  гр.1С в 1306 </t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1095,11 +1092,7 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1142,11 +1135,7 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Вторник</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1198,8 +1187,16 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Архитектура систем Ибатулин Н.Н. в 1404 </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О.в 1305 </t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1221,28 +1218,48 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Теория вероятностей и математическая статистика Еникеева З.А. в 1302 </t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Управление проектами Насибуллина Э.Р. по ч.н.в 1404</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Инновационная экономика и технологическое предпринимательство Мустафина А.А. н.н. в 1308</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Управление проектами Насибуллина Э.Р. н.н.в 1404</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Архитектура систем Тощев А.С. в 1310-1311( 8.06 в 1310)</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Основы информационного поиска  Лукьяничева Е.О. в 1412</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1258,18 +1275,22 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы разработки информационных систем Еникеев К.Ш. в 1302 </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Архитектура систем Тощев А.С. в 109  к.2</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1277,9 +1298,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Управление проектами Селезнева Н.Э. н.н.в 1404</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Управление проектами Селезнева Н.Э. ч.н.в 1404(8.06 в 1508)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Методология научных исследований Елизаров А.М. (11-801 - 11-805) в 1310-1311 Лекция (MS Teams)</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1295,18 +1328,22 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Основы разработки информационных систем Еникеев К.Ш.в 1412 </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Элективные курсы по физической культуре и спорту в УНИКС с 14:00 - 15:30 </t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1316,7 +1353,11 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Методология научных исследований Елизаров А.М. (11-801 - 11-805) в 1310-1311 Лекция (MS Teams) </t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1336,18 +1377,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Философия Николаева Е.М. в 109 к.2 (с 11-901 по 11-906 по н.н., с 11-907 по 11-911 в ч.н.) в ms teams</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1357,7 +1398,11 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Методология научных исследований Голицына И.Н. (11-806 - 11-810) в 1310-1311 Лекция (MS Teams)</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1377,11 +1422,7 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1398,7 +1439,12 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Дисциплины по выбору:  
+Проектирование человеко-машинных интерфейсов Идрисов Т.Р. в 1309</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1418,11 +1464,7 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Среда</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1501,20 +1543,28 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто н.н.в 1408 </t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Информационная безопасность Зиятдинов М.Т.1306 </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1408 ( 9.06 в 1405)</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -1542,19 +1592,23 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Информационная безопасность Зиятдинов М.Т.1306</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О. в 1508 </t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1569,34 +1623,26 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+          <t>Архитектура систем  Ихсанов И.С. в 1311</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+          <t xml:space="preserve">Управление проектами Туйкин А.М. н.н. в 1409 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+          <t xml:space="preserve">Архитектура систем Гарифуллина Р.Н. в 1509 </t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
-        </is>
-      </c>
+          <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1310(9.06 в 1405))</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -1611,11 +1657,7 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -1628,27 +1670,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О. в 1508 </t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
+          <t>Управление проектами Насибуллина Э.Р. н.н.в 1311</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
+          <t>Управление проектами Насибуллина Э.Р. ч.н.в 1311</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1659,7 +1693,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Философия Пилото Родригес Ховьер Альберто ч.н. в 1310( 9.05 в 1405)</t>
+          <t>Философия Пилото Родригес Ховьер Альберто ч.н. в 1310( 9.06 в 1405)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1688,11 +1722,7 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -1739,11 +1769,7 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1760,7 +1786,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Методология научных исследований (по списку) 
+Елизаров А.М. гр.4 в 1509, Голицына И.Н. гр.3 в 1412 (по списку)</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -1780,11 +1811,7 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Четверг</t>
-        </is>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1839,10 +1866,18 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Архитектура систем Ибатулин Н.Н. 1301</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто н.н.в 1304 </t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1304 (в ms teams)</t>
@@ -1877,11 +1912,7 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -1894,34 +1925,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: 
+Анализ данных Нурутдинова А.Р. (лекция) в 1311 в ms teams</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1947,11 +1959,7 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -1964,34 +1972,16 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Иностранный язык Спиридонов А.В. в 1508</t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: 
+Анализ данных практика Григорян К.А.гр.1 в 1306 , Еникеева З.А. в 1310 (лекция) (20.05 перенос в 1509)
+Обработка текстов на естественном языке Липачев Е.К.(лекция) в 1311 (ms teams)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2020,11 +2010,7 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -2066,11 +2052,7 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -2112,11 +2094,7 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -2162,11 +2140,7 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Пятница</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -2218,66 +2192,22 @@
           <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Информационная безопасность  Шарипов Р.Р. в 1412</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2296,11 +2226,7 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -2308,69 +2234,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Вычислительные системы, сети и телекоммуникации Бубнов Д.В.в 1408</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t>Архитектура систем Родионова А.В.в 1305(с 18.04 перенос на понд.в 17.50 в 1412</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Информационная безопасность  Шарипов Р.Р. в 1412</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -2394,81 +2280,55 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t>Философия Пилото Родригес Ховьер Альберто н.н.в 1304</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t>Управление проектами Ибатулин Н.Н. н.н. в 1309</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто ч.н.в 1304 </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Информационная безопасность Дорофеев В.И.в 1404 </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Управление проектами Ибатулин Н.Н. ч.н. в 1309 ( 11.06 в 1305)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t>Архитектура систем Родионова А.В.в 1305(с 18.04 перенос на понд.в 19.30 в 1412</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: 
+Проектирование человеко-машинных интерфейсов Габдрахманов Б.Ф. в 1311(со 2 нед.) , 
+Интернет вещей Адьютантов Н.  в 1412</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -2483,81 +2343,35 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Элективные курсы по физической культуре и спорту в УНИКС с 14:00 - 15:30 </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: 
+Проектирование человеко-машинных интерфейсов Габдрахманов Б.Ф. (со 2н.) в 1311. 
+Интернет вещей Адьютантов Н. в 1412</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -2572,81 +2386,38 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Информационная безопасность Дорофеев В.И.в 1404 </t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+          <t xml:space="preserve">                                                </t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
-        </is>
-      </c>
+          <t>Дисциплины по выбору: 
+Интернет вещей Адьютантов Н. в 1412</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -2661,11 +2432,7 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -2703,11 +2470,7 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Суббота</t>
-        </is>
-      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>

--- a/data/timetable/masters.xlsx
+++ b/data/timetable/masters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>№17, нечётная</t>
+          <t>№16, чётная</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -570,13 +570,7 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Занятия по дисциплине "Основы правоведения и противодействия коррупции" согласно приложению №4.
-Сводный список обучающихся согласно приложению №4.
-Ссылки на команды в Мicrosoft Тeams по приложению № 4.</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -610,7 +604,11 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -627,12 +625,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Дисциплины по выбору:  
-Проектирование человеко-машинных интерфейсов Чупин М.М. (Григорян К.А.) гр 1(веб-аналитика) в 1412</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
@@ -648,7 +641,11 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -665,12 +662,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Дисциплины по выбору:  
-Проектирование человеко-машинных интерфейсов  Чупин М.М. (Григорян К.А.) гр 1 (веб-аналитика) в 1412</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
@@ -686,7 +678,11 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -707,13 +703,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Дисциплины по выбору:  
-Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.) гр 2(веб-аналитика) в 1412, 
-Зайдуллин С.С.в 1508 </t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -729,7 +719,11 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -746,12 +740,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Дисциплины по выбору:  
-Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.) гр 2(веб-аналитика) в 1412, Зайдуллин С.С. в 1508</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -767,7 +756,11 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -809,7 +802,11 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Понедельник</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -888,7 +885,11 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -925,7 +926,11 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -970,7 +975,11 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -1025,7 +1034,11 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -1034,12 +1047,12 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. н.н. в 1305</t>
+          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. н.н. в 1305(24.05 и 31.05 перенос на 28.05 в 8.30 в ауд. 1311)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. ч.н. в 1305</t>
+          <t>Инновационная экономика и технологическое предпринимательство Атюнькина И.Н. ч.н. в 1305(24.05 и 31.05 перенос на 28.05 в 8.30 в ауд. 1311)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1061,18 +1074,8 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Информационная безопасность  Шарипов Р.Р.в 1408</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Дисциплины по выбору: 
-Мобильные информационные системы Хайруллин А.Ф.(гр. №2 в 1404, 
-Проектирование человеко-машинных интерфейсов Чупин М.М.(Григорян К.А.)  гр.1С в 1306 </t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1092,7 +1095,11 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1135,7 +1142,11 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Вторник</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1187,16 +1198,8 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Архитектура систем Ибатулин Н.Н. в 1404 </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О.в 1305 </t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1218,48 +1221,28 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Теория вероятностей и математическая статистика Еникеева З.А. в 1302 </t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Управление проектами Насибуллина Э.Р. по ч.н.в 1404</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Инновационная экономика и технологическое предпринимательство Мустафина А.А. н.н. в 1308</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Управление проектами Насибуллина Э.Р. н.н.в 1404</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Архитектура систем Тощев А.С. в 1310-1311( 8.06 в 1310)</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Основы информационного поиска  Лукьяничева Е.О. в 1412</t>
-        </is>
-      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1275,22 +1258,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Основы разработки информационных систем Еникеев К.Ш. в 1302 </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Архитектура систем Тощев А.С. в 109  к.2</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1298,21 +1277,9 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Управление проектами Селезнева Н.Э. н.н.в 1404</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Управление проектами Селезнева Н.Э. ч.н.в 1404(8.06 в 1508)</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Методология научных исследований Елизаров А.М. (11-801 - 11-805) в 1310-1311 Лекция (MS Teams)</t>
-        </is>
-      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
@@ -1328,22 +1295,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Основы разработки информационных систем Еникеев К.Ш.в 1412 </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Элективные курсы по физической культуре и спорту в УНИКС с 14:00 - 15:30 </t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1353,11 +1316,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Методология научных исследований Елизаров А.М. (11-801 - 11-805) в 1310-1311 Лекция (MS Teams) </t>
-        </is>
-      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
@@ -1377,18 +1336,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Философия Николаева Е.М. в 109 к.2 (с 11-901 по 11-906 по н.н., с 11-907 по 11-911 в ч.н.) в ms teams</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1398,11 +1357,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Методология научных исследований Голицына И.Н. (11-806 - 11-810) в 1310-1311 Лекция (MS Teams)</t>
-        </is>
-      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -1422,7 +1377,11 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1439,12 +1398,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Дисциплины по выбору:  
-Проектирование человеко-машинных интерфейсов Идрисов Т.Р. в 1309</t>
-        </is>
-      </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
@@ -1464,7 +1418,11 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Среда</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1543,28 +1501,20 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто н.н.в 1408 </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Информационная безопасность Зиятдинов М.Т.1306 </t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1408 ( 9.06 в 1405)</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -1592,23 +1542,19 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Информационная безопасность Зиятдинов М.Т.1306</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О. в 1508 </t>
-        </is>
-      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -1623,26 +1569,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Архитектура систем  Ихсанов И.С. в 1311</t>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление проектами Туйкин А.М. н.н. в 1409 </t>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Архитектура систем Гарифуллина Р.Н. в 1509 </t>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1310(9.06 в 1405))</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Инновационная экономика и технологическое предпринимательство Ибатуллина А.А. н.н. в 1408 </t>
+        </is>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
@@ -1657,7 +1611,11 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -1670,19 +1628,27 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Архитектура систем Лукьяничева Е.О. в 1508 </t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Управление проектами Насибуллина Э.Р. н.н.в 1311</t>
+          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Управление проектами Насибуллина Э.Р. ч.н.в 1311</t>
+          <t>Основы разработки информационных систем Ференец А.А. в 109 к.2 по н.н.</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1693,7 +1659,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Философия Пилото Родригес Ховьер Альберто ч.н. в 1310( 9.06 в 1405)</t>
+          <t>Философия Пилото Родригес Ховьер Альберто ч.н. в 1310( 9.05 в 1405)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1722,7 +1688,11 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -1769,7 +1739,11 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -1786,12 +1760,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Методология научных исследований (по списку) 
-Елизаров А.М. гр.4 в 1509, Голицына И.Н. гр.3 в 1412 (по списку)</t>
-        </is>
-      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -1811,7 +1780,11 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Четверг</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -1866,18 +1839,10 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Архитектура систем Ибатулин Н.Н. 1301</t>
-        </is>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто н.н.в 1304 </t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>Философия Пилото Родригес Ховьер Альберто ч.н.в 1304 (в ms teams)</t>
@@ -1912,7 +1877,11 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -1925,15 +1894,34 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: 
-Анализ данных Нурутдинова А.Р. (лекция) в 1311 в ms teams</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
@@ -1959,7 +1947,11 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
@@ -1972,16 +1964,34 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: 
-Анализ данных практика Григорян К.А.гр.1 в 1306 , Еникеева З.А. в 1310 (лекция) (20.05 перенос в 1509)
-Обработка текстов на естественном языке Липачев Е.К.(лекция) в 1311 (ms teams)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Иностранный язык Спиридонов А.В. в 1508</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2010,7 +2020,11 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
@@ -2052,7 +2066,11 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
@@ -2094,7 +2112,11 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -2140,7 +2162,11 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Пятница</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
@@ -2192,22 +2218,66 @@
           <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Информационная безопасность  Шарипов Р.Р. в 1412</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
@@ -2226,7 +2296,11 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>10:10 - 11:40</t>
@@ -2234,29 +2308,69 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Вычислительные системы, сети и телекоммуникации Бубнов Д.В.в 1408</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Архитектура систем Родионова А.В.в 1305(с 18.04 перенос на понд.в 17.50 в 1412</t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Информационная безопасность  Шарипов Р.Р. в 1412</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -2280,55 +2394,81 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>11:50 - 13:20</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Философия Пилото Родригес Ховьер Альберто н.н.в 1304</t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Управление проектами Ибатулин Н.Н. н.н. в 1309</t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Философия Пилото Родригес Ховьер Альберто ч.н.в 1304 </t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Информационная безопасность Дорофеев В.И.в 1404 </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Управление проектами Ибатулин Н.Н. ч.н. в 1309 ( 11.06 в 1305)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Архитектура систем Родионова А.В.в 1305(с 18.04 перенос на понд.в 19.30 в 1412</t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: 
-Проектирование человеко-машинных интерфейсов Габдрахманов Б.Ф. в 1311(со 2 нед.) , 
-Интернет вещей Адьютантов Н.  в 1412</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
@@ -2343,35 +2483,81 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>14:00 - 15:30</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Элективные курсы по физической культуре и спорту в УНИКС с 14:00 - 15:30 </t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: 
-Проектирование человеко-машинных интерфейсов Габдрахманов Б.Ф. (со 2н.) в 1311. 
-Интернет вещей Адьютантов Н. в 1412</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
@@ -2386,38 +2572,81 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>15:40 - 17:10</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Информационная безопасность Дорофеев В.И.в 1404 </t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                                </t>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Дисциплины по выбору: 
-Интернет вещей Адьютантов Н. в 1412</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr"/>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Всеобщая история Григер М.В.в 1305 (9 нед)</t>
+        </is>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
@@ -2432,7 +2661,11 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>17:50 - 19:20</t>
@@ -2470,7 +2703,11 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr"/>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Суббота</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>19:30 - 21:00</t>
